--- a/data/exceldata.xlsx
+++ b/data/exceldata.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16920" windowHeight="5055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="dickblick" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -36,10 +37,10 @@
     <t>locatorValue</t>
   </si>
   <si>
-    <t>pen</t>
-  </si>
-  <si>
     <t>data</t>
+  </si>
+  <si>
+    <t>paper</t>
   </si>
 </sst>
 </file>
@@ -418,19 +419,19 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
